--- a/posesiones/1381278.xlsx
+++ b/posesiones/1381278.xlsx
@@ -1961,10 +1961,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2155,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>10</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2258,7 +2258,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>21</v>
@@ -2311,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2361,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R11">
         <v>6</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2458,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2508,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R14">
         <v>18</v>
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2611,7 +2611,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R16">
         <v>19</v>
@@ -2664,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2714,7 +2714,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R18">
         <v>5</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2811,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2908,7 +2908,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R22">
         <v>29</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -3008,7 +3008,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R24">
         <v>4</v>
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3108,7 +3108,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R26">
         <v>11</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3208,7 +3208,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R28">
         <v>5</v>
@@ -3258,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3308,7 +3308,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R30">
         <v>8</v>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R33">
         <v>6</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3558,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3608,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3655,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3755,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R39">
         <v>21</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3855,7 +3855,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R41">
         <v>15</v>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3955,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -4005,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -4052,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4102,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4152,7 +4152,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R47">
         <v>27</v>
@@ -4202,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4252,7 +4252,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R49">
         <v>10</v>
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4352,7 +4352,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4399,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4449,7 +4449,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R53">
         <v>9</v>
@@ -4496,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4546,7 +4546,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R55">
         <v>21</v>
@@ -4596,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4646,7 +4646,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R57">
         <v>8</v>
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R59">
         <v>27</v>
@@ -4799,7 +4799,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4849,7 +4849,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R61">
         <v>9</v>
@@ -4899,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4996,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -5046,7 +5046,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R65">
         <v>11</v>
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5146,7 +5146,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R67">
         <v>5</v>
@@ -5196,7 +5196,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5243,7 +5243,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5293,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5340,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5387,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5434,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5481,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5528,7 +5528,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5578,7 +5578,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R76">
         <v>25</v>
@@ -5628,7 +5628,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5725,7 +5725,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R79">
         <v>14</v>
@@ -5775,7 +5775,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5825,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5872,7 +5872,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5922,7 +5922,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5969,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6063,7 +6063,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6113,7 +6113,7 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R87">
         <v>25</v>
@@ -6163,7 +6163,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6210,7 +6210,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6260,7 +6260,7 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R90">
         <v>9</v>
@@ -6313,7 +6313,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6363,7 +6363,7 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R92">
         <v>16</v>
@@ -6416,7 +6416,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6466,7 +6466,7 @@
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R94">
         <v>7</v>
@@ -6516,7 +6516,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6566,7 +6566,7 @@
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R96">
         <v>18</v>
@@ -6619,7 +6619,7 @@
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R97">
         <v>18</v>
@@ -6669,7 +6669,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6716,7 +6716,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6763,7 +6763,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6810,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6857,7 +6857,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6904,7 +6904,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6954,7 +6954,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -7004,7 +7004,7 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R105">
         <v>17</v>
@@ -7057,7 +7057,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7107,7 +7107,7 @@
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R107">
         <v>18</v>
@@ -7157,7 +7157,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7207,7 +7207,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7254,7 +7254,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7304,7 +7304,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7354,7 +7354,7 @@
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R112">
         <v>12</v>
@@ -7407,7 +7407,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7457,7 +7457,7 @@
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R114">
         <v>7</v>
@@ -7507,7 +7507,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7554,7 +7554,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7601,7 +7601,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7695,7 +7695,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7742,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7792,7 +7792,7 @@
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R121">
         <v>8</v>
@@ -7842,7 +7842,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7889,7 +7889,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7936,7 +7936,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7983,7 +7983,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -8030,7 +8030,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8077,7 +8077,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8124,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8218,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8265,7 +8265,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8359,7 +8359,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8409,7 +8409,7 @@
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R134">
         <v>17</v>
@@ -8462,7 +8462,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R135">
         <v>22</v>
@@ -8512,7 +8512,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8559,7 +8559,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8612,7 +8612,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R138">
         <v>7</v>
@@ -8662,7 +8662,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8709,7 +8709,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8756,7 +8756,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8806,7 +8806,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R142">
         <v>15</v>
@@ -8859,7 +8859,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8909,7 +8909,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R144">
         <v>19</v>
@@ -8959,7 +8959,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -9009,7 +9009,7 @@
         <v>1</v>
       </c>
       <c r="Q146">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R146">
         <v>8</v>
@@ -9062,7 +9062,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9112,7 +9112,7 @@
         <v>1</v>
       </c>
       <c r="Q148">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R148">
         <v>10</v>
@@ -9156,10 +9156,10 @@
         <v>1</v>
       </c>
       <c r="P149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q149">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9206,7 +9206,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9253,7 +9253,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9294,10 +9294,10 @@
         <v>1</v>
       </c>
       <c r="P152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q152">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9344,7 +9344,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9391,7 +9391,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9441,7 +9441,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R155">
         <v>27</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9541,7 +9541,7 @@
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R157">
         <v>9</v>
@@ -9591,7 +9591,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9685,7 +9685,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9779,7 +9779,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9826,7 +9826,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9876,7 +9876,7 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R164">
         <v>0</v>
@@ -9929,7 +9929,7 @@
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R165">
         <v>13</v>
@@ -9982,7 +9982,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -10032,7 +10032,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R167">
         <v>10</v>
@@ -10082,7 +10082,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10176,7 +10176,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10226,7 +10226,7 @@
         <v>1</v>
       </c>
       <c r="Q171">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R171">
         <v>0</v>
@@ -10279,7 +10279,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10329,7 +10329,7 @@
         <v>1</v>
       </c>
       <c r="Q173">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R173">
         <v>3</v>
@@ -10382,7 +10382,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10429,7 +10429,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10482,7 +10482,7 @@
         <v>1</v>
       </c>
       <c r="Q176">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R176">
         <v>20</v>
@@ -10532,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10582,7 +10582,7 @@
         <v>1</v>
       </c>
       <c r="Q178">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R178">
         <v>15</v>
@@ -10632,7 +10632,7 @@
         <v>1</v>
       </c>
       <c r="Q179">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R179">
         <v>13</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10732,7 +10732,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10782,7 +10782,7 @@
         <v>1</v>
       </c>
       <c r="Q182">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R182">
         <v>30</v>
@@ -10835,7 +10835,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R183">
         <v>10</v>
@@ -10888,7 +10888,7 @@
         <v>1</v>
       </c>
       <c r="Q184">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R184">
         <v>16</v>
@@ -10941,7 +10941,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10991,7 +10991,7 @@
         <v>1</v>
       </c>
       <c r="Q186">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R186">
         <v>24</v>
@@ -11044,7 +11044,7 @@
         <v>1</v>
       </c>
       <c r="Q187">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R187">
         <v>19</v>
@@ -11094,7 +11094,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11141,7 +11141,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11188,7 +11188,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11235,7 +11235,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11282,7 +11282,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11329,7 +11329,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11376,7 +11376,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11423,7 +11423,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11470,7 +11470,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11520,7 +11520,7 @@
         <v>1</v>
       </c>
       <c r="Q197">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R197">
         <v>9</v>
@@ -11570,7 +11570,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11620,7 +11620,7 @@
         <v>1</v>
       </c>
       <c r="Q199">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R199">
         <v>6</v>
@@ -11670,7 +11670,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11714,7 +11714,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11764,7 +11764,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R202">
         <v>18</v>
@@ -11814,7 +11814,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11864,7 +11864,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R204">
         <v>16</v>
@@ -11917,7 +11917,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11967,7 +11967,7 @@
         <v>1</v>
       </c>
       <c r="Q206">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R206">
         <v>9</v>
@@ -12017,7 +12017,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -12067,7 +12067,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12117,7 +12117,7 @@
         <v>1</v>
       </c>
       <c r="Q209">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R209">
         <v>20</v>
@@ -12170,7 +12170,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12220,7 +12220,7 @@
         <v>1</v>
       </c>
       <c r="Q211">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R211">
         <v>10</v>
@@ -12270,7 +12270,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12317,7 +12317,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12364,7 +12364,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12411,7 +12411,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12458,7 +12458,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12505,7 +12505,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12552,7 +12552,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12602,7 +12602,7 @@
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R219">
         <v>4</v>
@@ -12655,7 +12655,7 @@
         <v>1</v>
       </c>
       <c r="Q220">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R220">
         <v>14</v>
@@ -12705,7 +12705,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12755,7 +12755,7 @@
         <v>1</v>
       </c>
       <c r="Q222">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R222">
         <v>14</v>
@@ -12808,7 +12808,7 @@
         <v>1</v>
       </c>
       <c r="Q223">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R223">
         <v>24</v>
@@ -12861,7 +12861,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12908,7 +12908,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12955,7 +12955,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -13002,7 +13002,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -13052,7 +13052,7 @@
         <v>1</v>
       </c>
       <c r="Q228">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R228">
         <v>7</v>
@@ -13102,7 +13102,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13149,7 +13149,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13199,7 +13199,7 @@
         <v>1</v>
       </c>
       <c r="Q231">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R231">
         <v>15</v>
@@ -13249,7 +13249,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13299,7 +13299,7 @@
         <v>1</v>
       </c>
       <c r="Q233">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R233">
         <v>18</v>
@@ -13349,7 +13349,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13399,7 +13399,7 @@
         <v>1</v>
       </c>
       <c r="Q235">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R235">
         <v>8</v>
@@ -13449,7 +13449,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13499,7 +13499,7 @@
         <v>1</v>
       </c>
       <c r="Q237">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R237">
         <v>18</v>
@@ -13552,7 +13552,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13602,7 +13602,7 @@
         <v>1</v>
       </c>
       <c r="Q239">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R239">
         <v>18</v>
@@ -13652,7 +13652,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13699,7 +13699,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13746,7 +13746,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13796,7 +13796,7 @@
         <v>1</v>
       </c>
       <c r="Q243">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R243">
         <v>0</v>
@@ -13849,7 +13849,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13896,7 +13896,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13943,7 +13943,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13990,7 +13990,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -14037,7 +14037,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14084,7 +14084,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14134,7 +14134,7 @@
         <v>1</v>
       </c>
       <c r="Q250">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R250">
         <v>11</v>
@@ -14187,7 +14187,7 @@
         <v>1</v>
       </c>
       <c r="Q251">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R251">
         <v>18</v>
@@ -14240,7 +14240,7 @@
         <v>1</v>
       </c>
       <c r="Q252">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R252">
         <v>14</v>
@@ -14290,7 +14290,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14340,7 +14340,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14390,7 +14390,7 @@
         <v>1</v>
       </c>
       <c r="Q255">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R255">
         <v>23</v>
@@ -14443,7 +14443,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14490,7 +14490,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14537,7 +14537,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14584,7 +14584,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14631,7 +14631,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14678,7 +14678,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14728,7 +14728,7 @@
         <v>1</v>
       </c>
       <c r="Q262">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R262">
         <v>0</v>
@@ -14781,7 +14781,7 @@
         <v>1</v>
       </c>
       <c r="Q263">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="R263">
         <v>12</v>
@@ -14834,7 +14834,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14884,7 +14884,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="R265">
         <v>17</v>
@@ -14937,7 +14937,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14987,7 +14987,7 @@
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="R267">
         <v>9</v>
@@ -15040,7 +15040,7 @@
         <v>1</v>
       </c>
       <c r="Q268">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R268">
         <v>9</v>
@@ -15090,7 +15090,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15140,7 +15140,7 @@
         <v>1</v>
       </c>
       <c r="Q270">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="R270">
         <v>24</v>
@@ -15193,7 +15193,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15243,7 +15243,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="R272">
         <v>4</v>
@@ -15290,7 +15290,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15337,7 +15337,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15384,7 +15384,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15431,7 +15431,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15478,7 +15478,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15528,7 +15528,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="R278">
         <v>11</v>
@@ -15581,7 +15581,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R279">
         <v>7</v>
@@ -15631,7 +15631,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15672,10 +15672,10 @@
         <v>1</v>
       </c>
       <c r="P281" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q281">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15722,7 +15722,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15769,7 +15769,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15816,7 +15816,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15863,7 +15863,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15910,7 +15910,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15957,7 +15957,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15998,10 +15998,10 @@
         <v>1</v>
       </c>
       <c r="P288" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q288">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -16051,7 +16051,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R289">
         <v>21</v>
@@ -16101,7 +16101,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16151,7 +16151,7 @@
         <v>1</v>
       </c>
       <c r="Q291">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R291">
         <v>15</v>
@@ -16201,7 +16201,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16251,7 +16251,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R293">
         <v>6</v>
@@ -16301,7 +16301,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16351,7 +16351,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R295">
         <v>18</v>
@@ -16401,7 +16401,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16448,7 +16448,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16495,7 +16495,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16542,7 +16542,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16589,7 +16589,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16639,7 +16639,7 @@
         <v>1</v>
       </c>
       <c r="Q301">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R301">
         <v>28</v>
@@ -16689,7 +16689,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16739,7 +16739,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16789,7 +16789,7 @@
         <v>1</v>
       </c>
       <c r="Q304">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R304">
         <v>13</v>
@@ -16839,7 +16839,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16889,7 +16889,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16936,7 +16936,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16986,7 +16986,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -17036,7 +17036,7 @@
         <v>1</v>
       </c>
       <c r="Q309">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R309">
         <v>22</v>
@@ -17089,7 +17089,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R310">
         <v>7</v>
@@ -17142,7 +17142,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17192,7 +17192,7 @@
         <v>1</v>
       </c>
       <c r="Q312">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R312">
         <v>8</v>
@@ -17242,7 +17242,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17292,7 +17292,7 @@
         <v>1</v>
       </c>
       <c r="Q314">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R314">
         <v>13</v>
@@ -17342,7 +17342,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17392,7 +17392,7 @@
         <v>1</v>
       </c>
       <c r="Q316">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R316">
         <v>22</v>
@@ -17445,7 +17445,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17495,7 +17495,7 @@
         <v>1</v>
       </c>
       <c r="Q318">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R318">
         <v>9</v>
@@ -17548,7 +17548,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17595,7 +17595,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17645,7 +17645,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17695,7 +17695,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R322">
         <v>17</v>
@@ -17742,7 +17742,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17789,7 +17789,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17836,7 +17836,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17883,7 +17883,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17930,7 +17930,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17977,7 +17977,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -18024,7 +18024,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -18074,7 +18074,7 @@
         <v>1</v>
       </c>
       <c r="Q330">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R330">
         <v>18</v>
@@ -18127,7 +18127,7 @@
         <v>1</v>
       </c>
       <c r="Q331">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R331">
         <v>21</v>
@@ -18177,7 +18177,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18224,7 +18224,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18271,7 +18271,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18318,7 +18318,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18365,7 +18365,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18412,7 +18412,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18459,7 +18459,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18506,7 +18506,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18556,7 +18556,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R340">
         <v>5</v>
@@ -18609,7 +18609,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18659,7 +18659,7 @@
         <v>1</v>
       </c>
       <c r="Q342">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R342">
         <v>22</v>
@@ -18712,7 +18712,7 @@
         <v>1</v>
       </c>
       <c r="Q343">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R343">
         <v>26</v>
@@ -18762,7 +18762,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18812,7 +18812,7 @@
         <v>1</v>
       </c>
       <c r="Q345">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R345">
         <v>17</v>
@@ -18865,7 +18865,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18915,7 +18915,7 @@
         <v>1</v>
       </c>
       <c r="Q347">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R347">
         <v>10</v>
@@ -18968,7 +18968,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -19015,7 +19015,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -19062,7 +19062,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19112,7 +19112,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R351">
         <v>22</v>
@@ -19162,7 +19162,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19212,7 +19212,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R353">
         <v>12</v>
@@ -19262,7 +19262,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19309,7 +19309,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19359,7 +19359,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R356">
         <v>0</v>
@@ -19412,7 +19412,7 @@
         <v>1</v>
       </c>
       <c r="Q357">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R357">
         <v>20</v>
@@ -19465,7 +19465,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19515,7 +19515,7 @@
         <v>1</v>
       </c>
       <c r="Q359">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R359">
         <v>16</v>
@@ -19565,7 +19565,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19615,7 +19615,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R361">
         <v>5</v>
@@ -19668,7 +19668,7 @@
         <v>1</v>
       </c>
       <c r="Q362">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R362">
         <v>21</v>
@@ -19718,7 +19718,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19768,7 +19768,7 @@
         <v>1</v>
       </c>
       <c r="Q364">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R364">
         <v>26</v>
@@ -19818,7 +19818,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19865,7 +19865,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19912,7 +19912,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19959,7 +19959,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -20009,7 +20009,7 @@
         <v>1</v>
       </c>
       <c r="Q369">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R369">
         <v>27</v>
@@ -20062,7 +20062,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -20112,7 +20112,7 @@
         <v>1</v>
       </c>
       <c r="Q371">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R371">
         <v>5</v>
@@ -20162,7 +20162,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20212,7 +20212,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R373">
         <v>15</v>
@@ -20265,7 +20265,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20312,7 +20312,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20359,7 +20359,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20406,7 +20406,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20456,7 +20456,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20503,7 +20503,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20550,7 +20550,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20597,7 +20597,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20644,7 +20644,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20691,7 +20691,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20738,7 +20738,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20785,7 +20785,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20835,7 +20835,7 @@
         <v>1</v>
       </c>
       <c r="Q386">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R386">
         <v>25</v>
@@ -20888,7 +20888,7 @@
         <v>1</v>
       </c>
       <c r="Q387">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R387">
         <v>22</v>
@@ -20938,7 +20938,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20985,7 +20985,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -21032,7 +21032,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -21079,7 +21079,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21129,7 +21129,7 @@
         <v>1</v>
       </c>
       <c r="Q392">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="R392">
         <v>10</v>
@@ -21179,7 +21179,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21226,7 +21226,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21273,7 +21273,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21320,7 +21320,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21367,7 +21367,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21414,7 +21414,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21461,7 +21461,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21511,7 +21511,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R400">
         <v>16</v>
@@ -21561,7 +21561,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21608,7 +21608,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21655,7 +21655,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21705,7 +21705,7 @@
         <v>1</v>
       </c>
       <c r="Q404">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="R404">
         <v>17</v>
@@ -21755,7 +21755,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21805,7 +21805,7 @@
         <v>1</v>
       </c>
       <c r="Q406">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R406">
         <v>17</v>
@@ -21858,7 +21858,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21908,7 +21908,7 @@
         <v>1</v>
       </c>
       <c r="Q408">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="R408">
         <v>5</v>
@@ -21964,7 +21964,7 @@
         <v>1</v>
       </c>
       <c r="Q409">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="R409">
         <v>0</v>
@@ -22008,10 +22008,10 @@
         <v>1</v>
       </c>
       <c r="P410" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q410">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -22058,7 +22058,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -22105,7 +22105,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22152,7 +22152,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22199,7 +22199,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22246,7 +22246,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22293,7 +22293,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22334,10 +22334,10 @@
         <v>1</v>
       </c>
       <c r="P417" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q417">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22387,7 +22387,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R418">
         <v>16</v>
@@ -22440,7 +22440,7 @@
         <v>1</v>
       </c>
       <c r="Q419">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R419">
         <v>22</v>
@@ -22493,7 +22493,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R420">
         <v>19</v>
@@ -22543,7 +22543,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22593,7 +22593,7 @@
         <v>1</v>
       </c>
       <c r="Q422">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R422">
         <v>24</v>
@@ -22646,7 +22646,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22696,7 +22696,7 @@
         <v>1</v>
       </c>
       <c r="Q424">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R424">
         <v>14</v>
@@ -22749,7 +22749,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22799,7 +22799,7 @@
         <v>1</v>
       </c>
       <c r="Q426">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R426">
         <v>15</v>
@@ -22849,7 +22849,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22896,7 +22896,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22943,7 +22943,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22990,7 +22990,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -23040,7 +23040,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -23087,7 +23087,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23134,7 +23134,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23184,7 +23184,7 @@
         <v>1</v>
       </c>
       <c r="Q434">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R434">
         <v>23</v>
@@ -23237,7 +23237,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23287,7 +23287,7 @@
         <v>1</v>
       </c>
       <c r="Q436">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R436">
         <v>7</v>
@@ -23337,7 +23337,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23387,7 +23387,7 @@
         <v>1</v>
       </c>
       <c r="Q438">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R438">
         <v>14</v>
@@ -23440,7 +23440,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23490,7 +23490,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R440">
         <v>7</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23590,7 +23590,7 @@
         <v>1</v>
       </c>
       <c r="Q442">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R442">
         <v>2</v>
@@ -23640,7 +23640,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23687,7 +23687,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23737,7 +23737,7 @@
         <v>1</v>
       </c>
       <c r="Q445">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R445">
         <v>0</v>
@@ -23787,7 +23787,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23840,7 +23840,7 @@
         <v>1</v>
       </c>
       <c r="Q447">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R447">
         <v>5</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -24031,7 +24031,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -24078,7 +24078,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24125,7 +24125,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24175,7 +24175,7 @@
         <v>1</v>
       </c>
       <c r="Q454">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R454">
         <v>14</v>
@@ -24225,7 +24225,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24272,7 +24272,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24322,7 +24322,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24416,7 +24416,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24510,7 +24510,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24557,7 +24557,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24701,7 +24701,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24751,7 +24751,7 @@
         <v>1</v>
       </c>
       <c r="Q466">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R466">
         <v>31</v>
@@ -24801,7 +24801,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24848,7 +24848,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24942,7 +24942,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24992,7 +24992,7 @@
         <v>1</v>
       </c>
       <c r="Q471">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R471">
         <v>8</v>
@@ -25042,7 +25042,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25139,7 +25139,7 @@
         <v>1</v>
       </c>
       <c r="Q474">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R474">
         <v>17</v>
@@ -25189,7 +25189,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25239,7 +25239,7 @@
         <v>1</v>
       </c>
       <c r="Q476">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R476">
         <v>21</v>
@@ -25292,7 +25292,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25342,7 +25342,7 @@
         <v>1</v>
       </c>
       <c r="Q478">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R478">
         <v>24</v>
@@ -25392,7 +25392,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25483,7 +25483,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25530,7 +25530,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25580,7 +25580,7 @@
         <v>1</v>
       </c>
       <c r="Q483">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R483">
         <v>19</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25680,7 +25680,7 @@
         <v>1</v>
       </c>
       <c r="Q485">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R485">
         <v>31</v>
@@ -25733,7 +25733,7 @@
         <v>1</v>
       </c>
       <c r="Q486">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R486">
         <v>20</v>
@@ -25783,7 +25783,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25833,7 +25833,7 @@
         <v>1</v>
       </c>
       <c r="Q488">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R488">
         <v>29</v>
@@ -25886,7 +25886,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25936,7 +25936,7 @@
         <v>1</v>
       </c>
       <c r="Q490">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R490">
         <v>14</v>
@@ -25986,7 +25986,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -26030,7 +26030,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -26124,7 +26124,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26171,7 +26171,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26218,7 +26218,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26265,7 +26265,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26312,7 +26312,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26362,7 +26362,7 @@
         <v>1</v>
       </c>
       <c r="Q499">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R499">
         <v>12</v>
@@ -26412,7 +26412,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26462,7 +26462,7 @@
         <v>1</v>
       </c>
       <c r="Q501">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R501">
         <v>4</v>
@@ -26512,7 +26512,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26559,7 +26559,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26606,7 +26606,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26653,7 +26653,7 @@
         <v>0</v>
       </c>
       <c r="Q505">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -26703,7 +26703,7 @@
         <v>1</v>
       </c>
       <c r="Q506">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R506">
         <v>1</v>
@@ -26753,7 +26753,7 @@
         <v>0</v>
       </c>
       <c r="Q507">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -26800,7 +26800,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26850,7 +26850,7 @@
         <v>1</v>
       </c>
       <c r="Q509">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R509">
         <v>16</v>
@@ -26903,7 +26903,7 @@
         <v>1</v>
       </c>
       <c r="Q510">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R510">
         <v>5</v>
@@ -26956,7 +26956,7 @@
         <v>1</v>
       </c>
       <c r="Q511">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R511">
         <v>12</v>
@@ -27006,7 +27006,7 @@
         <v>0</v>
       </c>
       <c r="Q512">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="513" spans="1:18">
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="Q513">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="514" spans="1:18">
@@ -27103,7 +27103,7 @@
         <v>1</v>
       </c>
       <c r="Q514">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R514">
         <v>18</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="Q515">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="516" spans="1:18">
@@ -27203,7 +27203,7 @@
         <v>1</v>
       </c>
       <c r="Q516">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R516">
         <v>19</v>
@@ -27256,7 +27256,7 @@
         <v>0</v>
       </c>
       <c r="Q517">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="518" spans="1:18">
@@ -27303,7 +27303,7 @@
         <v>0</v>
       </c>
       <c r="Q518">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="519" spans="1:18">
@@ -27350,7 +27350,7 @@
         <v>0</v>
       </c>
       <c r="Q519">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="520" spans="1:18">
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="Q520">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="521" spans="1:18">
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="Q521">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="522" spans="1:18">
@@ -27491,7 +27491,7 @@
         <v>0</v>
       </c>
       <c r="Q522">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="523" spans="1:18">
@@ -27538,7 +27538,7 @@
         <v>0</v>
       </c>
       <c r="Q523">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="524" spans="1:18">
@@ -27588,7 +27588,7 @@
         <v>1</v>
       </c>
       <c r="Q524">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R524">
         <v>17</v>
@@ -27641,7 +27641,7 @@
         <v>1</v>
       </c>
       <c r="Q525">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="R525">
         <v>14</v>
@@ -27694,7 +27694,7 @@
         <v>0</v>
       </c>
       <c r="Q526">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="527" spans="1:18">
@@ -27741,7 +27741,7 @@
         <v>0</v>
       </c>
       <c r="Q527">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="528" spans="1:18">
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="Q528">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="529" spans="1:18">
@@ -27835,7 +27835,7 @@
         <v>0</v>
       </c>
       <c r="Q529">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="530" spans="1:18">
@@ -27885,7 +27885,7 @@
         <v>1</v>
       </c>
       <c r="Q530">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="R530">
         <v>18</v>
@@ -27935,7 +27935,7 @@
         <v>0</v>
       </c>
       <c r="Q531">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="532" spans="1:18">
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="Q532">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="533" spans="1:18">
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="Q533">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="534" spans="1:18">
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="Q534">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="535" spans="1:18">
@@ -28123,7 +28123,7 @@
         <v>0</v>
       </c>
       <c r="Q535">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="536" spans="1:18">
@@ -28170,7 +28170,7 @@
         <v>0</v>
       </c>
       <c r="Q536">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="537" spans="1:18">
@@ -28217,7 +28217,7 @@
         <v>0</v>
       </c>
       <c r="Q537">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="538" spans="1:18">
@@ -28264,7 +28264,7 @@
         <v>0</v>
       </c>
       <c r="Q538">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="539" spans="1:18">
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Q539">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="540" spans="1:18">
@@ -28364,7 +28364,7 @@
         <v>1</v>
       </c>
       <c r="Q540">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="R540">
         <v>6</v>
@@ -28417,7 +28417,7 @@
         <v>0</v>
       </c>
       <c r="Q541">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="542" spans="1:18">
@@ -28464,7 +28464,7 @@
         <v>0</v>
       </c>
       <c r="Q542">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="543" spans="1:18">
@@ -28514,7 +28514,7 @@
         <v>0</v>
       </c>
       <c r="Q543">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="544" spans="1:18">
@@ -28564,7 +28564,7 @@
         <v>1</v>
       </c>
       <c r="Q544">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="R544">
         <v>18</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="Q545">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="546" spans="1:18">
@@ -28664,7 +28664,7 @@
         <v>1</v>
       </c>
       <c r="Q546">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="R546">
         <v>9</v>
@@ -28714,7 +28714,7 @@
         <v>0</v>
       </c>
       <c r="Q547">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="548" spans="1:18">
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="Q548">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="549" spans="1:18">
@@ -28808,7 +28808,7 @@
         <v>0</v>
       </c>
       <c r="Q549">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="550" spans="1:18">
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="Q550">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="551" spans="1:18">
@@ -28905,7 +28905,7 @@
         <v>0</v>
       </c>
       <c r="Q551">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="552" spans="1:18">
@@ -28952,7 +28952,7 @@
         <v>0</v>
       </c>
       <c r="Q552">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="553" spans="1:18">
@@ -29002,7 +29002,7 @@
         <v>0</v>
       </c>
       <c r="Q553">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="554" spans="1:18">
@@ -29052,7 +29052,7 @@
         <v>1</v>
       </c>
       <c r="Q554">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="R554">
         <v>18</v>
@@ -29105,7 +29105,7 @@
         <v>1</v>
       </c>
       <c r="Q555">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="R555">
         <v>13</v>
@@ -29161,7 +29161,7 @@
         <v>1</v>
       </c>
       <c r="Q556">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="R556">
         <v>0</v>
@@ -29205,10 +29205,10 @@
         <v>1</v>
       </c>
       <c r="P557" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q557">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="558" spans="1:18">
@@ -29249,7 +29249,7 @@
         <v>0</v>
       </c>
       <c r="Q558">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
